--- a/Code/Results/Cases/Case_2_152/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_152/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9489514483556718</v>
+        <v>0.5612598015441392</v>
       </c>
       <c r="C2">
-        <v>0.1314604100316181</v>
+        <v>0.2063980941664276</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0611097420795641</v>
+        <v>0.1337229955632111</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008335244717473058</v>
+        <v>0.0024990320184048</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7786381770954733</v>
+        <v>0.2713727032321742</v>
       </c>
       <c r="L2">
-        <v>0.1468717068761691</v>
+        <v>0.1924470473464268</v>
       </c>
       <c r="M2">
-        <v>0.2040921895186543</v>
+        <v>0.1614391636097032</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.018300759660974</v>
+        <v>4.429621943480214</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.826240923272735</v>
+        <v>0.5267956353129932</v>
       </c>
       <c r="C3">
-        <v>0.1319759684900994</v>
+        <v>0.2067292841341768</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0603253987380441</v>
+        <v>0.1343082166931868</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008372884215147036</v>
+        <v>0.002501422356449482</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.678494353583929</v>
+        <v>0.240665292669604</v>
       </c>
       <c r="L3">
-        <v>0.1336152272909459</v>
+        <v>0.1899127339680362</v>
       </c>
       <c r="M3">
-        <v>0.1791346806493301</v>
+        <v>0.1549442551754225</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.064005496374165</v>
+        <v>4.472038509024884</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7511838714783323</v>
+        <v>0.5057995710549221</v>
       </c>
       <c r="C4">
-        <v>0.1323465677871241</v>
+        <v>0.2069618841588827</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05992913737284411</v>
+        <v>0.1347221439121853</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008396745533221783</v>
+        <v>0.00250296821329065</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6170536057402956</v>
+        <v>0.2218039225393653</v>
       </c>
       <c r="L4">
-        <v>0.1256271286507626</v>
+        <v>0.1884471570645019</v>
       </c>
       <c r="M4">
-        <v>0.1639169232934705</v>
+        <v>0.1510193880576232</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.096244486297593</v>
+        <v>4.500279134911096</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7206578632463163</v>
+        <v>0.4972856083549857</v>
       </c>
       <c r="C5">
-        <v>0.1325110870243371</v>
+        <v>0.2070640573938185</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05978847813573651</v>
+        <v>0.1349045729691625</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008406661273127614</v>
+        <v>0.002503617878382494</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.592019569890283</v>
+        <v>0.2141164810463749</v>
       </c>
       <c r="L5">
-        <v>0.1224076490926009</v>
+        <v>0.1878727446995612</v>
       </c>
       <c r="M5">
-        <v>0.1577394036935971</v>
+        <v>0.1494359414391369</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.110396865090422</v>
+        <v>4.512339807025398</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7155923500788788</v>
+        <v>0.4958744318662696</v>
       </c>
       <c r="C6">
-        <v>0.1325392179489668</v>
+        <v>0.2070814702791992</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05976636121308232</v>
+        <v>0.1349356962791521</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008408319468885303</v>
+        <v>0.002503726947568756</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5878626642251277</v>
+        <v>0.2128399233403968</v>
       </c>
       <c r="L6">
-        <v>0.1218751489829231</v>
+        <v>0.1877787442710144</v>
       </c>
       <c r="M6">
-        <v>0.156714989963735</v>
+        <v>0.149173979292307</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.112807140924019</v>
+        <v>4.514375835742257</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7507719580675882</v>
+        <v>0.5056845775084753</v>
       </c>
       <c r="C7">
-        <v>0.1323487320186949</v>
+        <v>0.2069632321498496</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05992715691179207</v>
+        <v>0.1347245485116435</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008396878479466226</v>
+        <v>0.002502976894706084</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6167159843923997</v>
+        <v>0.2217002515944699</v>
       </c>
       <c r="L7">
-        <v>0.125583567945192</v>
+        <v>0.1884393178464165</v>
       </c>
       <c r="M7">
-        <v>0.1638335182682376</v>
+        <v>0.1509979683290403</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.096431287157571</v>
+        <v>4.500439552741142</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9065736789246728</v>
+        <v>0.5493426409530855</v>
       </c>
       <c r="C8">
-        <v>0.1316268990985918</v>
+        <v>0.2065062371938637</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06082119857087065</v>
+        <v>0.1339134602371352</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008348069102183952</v>
+        <v>0.002499840015555668</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7440933331929074</v>
+        <v>0.2607864816713459</v>
       </c>
       <c r="L8">
-        <v>0.1422679920246495</v>
+        <v>0.1915544700209679</v>
       </c>
       <c r="M8">
-        <v>0.1954629995061907</v>
+        <v>0.1591867053503933</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.033171187043934</v>
+        <v>4.443791263134926</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.214973077264005</v>
+        <v>0.6362442573989142</v>
       </c>
       <c r="C9">
-        <v>0.1306448845214732</v>
+        <v>0.205840763659296</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06328172710201407</v>
+        <v>0.132755271812762</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008258149812468876</v>
+        <v>0.002494306291712215</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9946809897613207</v>
+        <v>0.3373635914175566</v>
       </c>
       <c r="L9">
-        <v>0.1763008403359763</v>
+        <v>0.1983790427813261</v>
       </c>
       <c r="M9">
-        <v>0.2584720196746026</v>
+        <v>0.1757406744412506</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.943933391085167</v>
+        <v>4.350133393697291</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.444199648448034</v>
+        <v>0.7008542045780644</v>
       </c>
       <c r="C10">
-        <v>0.130194920937484</v>
+        <v>0.2054906760205171</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06556520210697414</v>
+        <v>0.1321668425962663</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008195384457329659</v>
+        <v>0.002490613530813152</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.179917474334417</v>
+        <v>0.3935654702996771</v>
       </c>
       <c r="L10">
-        <v>0.2022751131235339</v>
+        <v>0.203827056814518</v>
       </c>
       <c r="M10">
-        <v>0.3055764151723466</v>
+        <v>0.1882008520717378</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.902062878340587</v>
+        <v>4.29194798214553</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.549269823791093</v>
+        <v>0.7304084605032415</v>
       </c>
       <c r="C11">
-        <v>0.1300509821450646</v>
+        <v>0.2053611852232891</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06671780744730071</v>
+        <v>0.1319559253749674</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0008167492009500056</v>
+        <v>0.002489013776976147</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.264586246405855</v>
+        <v>0.4191172243212122</v>
       </c>
       <c r="L11">
-        <v>0.2143423263130586</v>
+        <v>0.2063992885752555</v>
       </c>
       <c r="M11">
-        <v>0.32723237250827</v>
+        <v>0.193933184276105</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.888745966905788</v>
+        <v>4.26778510014023</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.589190142989679</v>
+        <v>0.7416228034570906</v>
       </c>
       <c r="C12">
-        <v>0.1300053775244123</v>
+        <v>0.2053163997970202</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06717156802161028</v>
+        <v>0.1318841993093862</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0008157019960531687</v>
+        <v>0.002488419451076372</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.296719721028296</v>
+        <v>0.4287905057372257</v>
       </c>
       <c r="L12">
-        <v>0.2189515537252902</v>
+        <v>0.2073867748942035</v>
       </c>
       <c r="M12">
-        <v>0.3354701497099271</v>
+        <v>0.196112991905494</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.884579983889381</v>
+        <v>4.258966877865504</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.580586386846591</v>
+        <v>0.7392065906139464</v>
       </c>
       <c r="C13">
-        <v>0.1300148005880075</v>
+        <v>0.2053258566037073</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06707305806424557</v>
+        <v>0.131899284903934</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0008159271368350147</v>
+        <v>0.002488546940734113</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.289795812741602</v>
+        <v>0.4267073155215257</v>
       </c>
       <c r="L13">
-        <v>0.2179570532095312</v>
+        <v>0.2071735054273773</v>
       </c>
       <c r="M13">
-        <v>0.3336942725443564</v>
+        <v>0.1956431286849565</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.885437323511439</v>
+        <v>4.260851283442236</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.552551326428357</v>
+        <v>0.7313306181643213</v>
       </c>
       <c r="C14">
-        <v>0.1300470508175309</v>
+        <v>0.2053574156964828</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06675478650339528</v>
+        <v>0.1319498613229406</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008166628687451837</v>
+        <v>0.002488964651915337</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.26722837965093</v>
+        <v>0.4199131061812977</v>
       </c>
       <c r="L14">
-        <v>0.2147207150338204</v>
+        <v>0.2064802607254705</v>
       </c>
       <c r="M14">
-        <v>0.3279093290331829</v>
+        <v>0.1941123367408579</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.888385339724778</v>
+        <v>4.267052970365256</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.535396869319186</v>
+        <v>0.7265093065127246</v>
       </c>
       <c r="C15">
-        <v>0.1300679694676532</v>
+        <v>0.2053772991218139</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06656211659227296</v>
+        <v>0.1319819008386531</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0008171146862695804</v>
+        <v>0.002489222003736393</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.253414862433544</v>
+        <v>0.4157511019324716</v>
       </c>
       <c r="L15">
-        <v>0.2127436337902679</v>
+        <v>0.2060573764154583</v>
       </c>
       <c r="M15">
-        <v>0.3243708550945001</v>
+        <v>0.1931758635843721</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.890306907609045</v>
+        <v>4.270894888854428</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.437350579423622</v>
+        <v>0.6989259876410472</v>
       </c>
       <c r="C16">
-        <v>0.130205564011483</v>
+        <v>0.2054997349120953</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06549224504144391</v>
+        <v>0.1321817671408461</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.000819722017959934</v>
+        <v>0.002490719685703947</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.174393400373049</v>
+        <v>0.3918952640513567</v>
       </c>
       <c r="L16">
-        <v>0.2014918435083217</v>
+        <v>0.2036608394170685</v>
       </c>
       <c r="M16">
-        <v>0.3041660995962232</v>
+        <v>0.1878275105745359</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.903052909828119</v>
+        <v>4.293573497242534</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.377418331678967</v>
+        <v>0.6820457784535847</v>
       </c>
       <c r="C17">
-        <v>0.1303056473632722</v>
+        <v>0.20558244734341</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06486570988670159</v>
+        <v>0.1323189035468584</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0008213381083032662</v>
+        <v>0.002491658943884884</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.126028778725754</v>
+        <v>0.3772563495589907</v>
       </c>
       <c r="L17">
-        <v>0.1946560268586524</v>
+        <v>0.2022146460240606</v>
       </c>
       <c r="M17">
-        <v>0.2918325199934202</v>
+        <v>0.1845628069225143</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.912376263715487</v>
+        <v>4.308076800883811</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.343020431912066</v>
+        <v>0.6723520960746043</v>
       </c>
       <c r="C18">
-        <v>0.1303689201521365</v>
+        <v>0.2056328248412456</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06451600001966362</v>
+        <v>0.1324031246191879</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.000822273880829949</v>
+        <v>0.002492206722903628</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.098247884557054</v>
+        <v>0.3688350727947238</v>
       </c>
       <c r="L18">
-        <v>0.1907476850383318</v>
+        <v>0.2013916763124257</v>
       </c>
       <c r="M18">
-        <v>0.284759746126511</v>
+        <v>0.1826910798483325</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.91827478808338</v>
+        <v>4.316635756186656</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.331385987432526</v>
+        <v>0.6690726404635825</v>
       </c>
       <c r="C19">
-        <v>0.1303913186765016</v>
+        <v>0.2056503642293563</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06439939734802991</v>
+        <v>0.1324325588041138</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0008225918029457338</v>
+        <v>0.00249239348857174</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.088847747204284</v>
+        <v>0.3659835545180101</v>
       </c>
       <c r="L19">
-        <v>0.1894283109718913</v>
+        <v>0.2011145535967387</v>
       </c>
       <c r="M19">
-        <v>0.282368535436234</v>
+        <v>0.1820583871084125</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.920362431032146</v>
+        <v>4.319570943630865</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.383790481460011</v>
+        <v>0.6838411196497134</v>
       </c>
       <c r="C20">
-        <v>0.1302944014594871</v>
+        <v>0.2055733525338468</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06493129620296401</v>
+        <v>0.1323037522101416</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008211654300880888</v>
+        <v>0.002491558177988583</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.131173337297639</v>
+        <v>0.3788148313460056</v>
       </c>
       <c r="L20">
-        <v>0.195381260854731</v>
+        <v>0.2023676810885462</v>
       </c>
       <c r="M20">
-        <v>0.2931432284840767</v>
+        <v>0.1849097155602237</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.911327934011666</v>
+        <v>4.306510435723879</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.560782153426715</v>
+        <v>0.7336433687692647</v>
       </c>
       <c r="C21">
-        <v>0.1300373351563309</v>
+        <v>0.2053480309238438</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06684779356593396</v>
+        <v>0.1319347849332004</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0008164465254310564</v>
+        <v>0.002488841649157161</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.273854938024812</v>
+        <v>0.4219088049813138</v>
       </c>
       <c r="L21">
-        <v>0.2156702013142535</v>
+        <v>0.2066835193152343</v>
       </c>
       <c r="M21">
-        <v>0.3296074629897134</v>
+        <v>0.1945617215217084</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.887495198912717</v>
+        <v>4.265222380200299</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.677238415782995</v>
+        <v>0.7663245492693136</v>
       </c>
       <c r="C22">
-        <v>0.1299213018243321</v>
+        <v>0.2052255282035489</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06820160995824764</v>
+        <v>0.1317411026149671</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0008134147949395287</v>
+        <v>0.002487133050891589</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.367527759302902</v>
+        <v>0.45005774948865</v>
       </c>
       <c r="L22">
-        <v>0.2291630192841438</v>
+        <v>0.2095824656465197</v>
       </c>
       <c r="M22">
-        <v>0.3536576607429325</v>
+        <v>0.2009228368197498</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.877057306426622</v>
+        <v>4.240171931558052</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.615005536864032</v>
+        <v>0.7488700699673529</v>
       </c>
       <c r="C23">
-        <v>0.1299784167621567</v>
+        <v>0.205288654804356</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06746946509903395</v>
+        <v>0.1318401381521888</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0008150282588038373</v>
+        <v>0.002488038865998969</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.317489561171101</v>
+        <v>0.4350357040290191</v>
       </c>
       <c r="L23">
-        <v>0.2219391289970361</v>
+        <v>0.208028100819476</v>
       </c>
       <c r="M23">
-        <v>0.3408000812132101</v>
+        <v>0.1975229841115862</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.882139610674074</v>
+        <v>4.25336484789247</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.380909453421793</v>
+        <v>0.6830294116625737</v>
       </c>
       <c r="C24">
-        <v>0.1302994678863953</v>
+        <v>0.2055774554959271</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0649016120135304</v>
+        <v>0.1323105853716147</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0008212434771098232</v>
+        <v>0.002491603710060384</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.128847406818664</v>
+        <v>0.3781102577974025</v>
       </c>
       <c r="L24">
-        <v>0.195053315359047</v>
+        <v>0.2022984675603396</v>
       </c>
       <c r="M24">
-        <v>0.2925506015432973</v>
+        <v>0.1847528619755963</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.911800210814818</v>
+        <v>4.307217901600467</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.131146639393307</v>
+        <v>0.6125994348638528</v>
       </c>
       <c r="C25">
-        <v>0.1308634292314252</v>
+        <v>0.2059962820018768</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06253592399753671</v>
+        <v>0.1330224180165711</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008281878383713951</v>
+        <v>0.002495737566298129</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9267411182778176</v>
+        <v>0.3166567158696694</v>
       </c>
       <c r="L25">
-        <v>0.1669365053232497</v>
+        <v>0.1964564301926472</v>
       </c>
       <c r="M25">
-        <v>0.2413000515169159</v>
+        <v>0.1712097480929842</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.964102070023714</v>
+        <v>4.373604443565625</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_152/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_152/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5612598015441392</v>
+        <v>0.948951448355615</v>
       </c>
       <c r="C2">
-        <v>0.2063980941664276</v>
+        <v>0.1314604100316217</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1337229955632111</v>
+        <v>0.06110974207959607</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0024990320184048</v>
+        <v>0.0008335244717288835</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2713727032321742</v>
+        <v>0.7786381770953028</v>
       </c>
       <c r="L2">
-        <v>0.1924470473464268</v>
+        <v>0.146871706876226</v>
       </c>
       <c r="M2">
-        <v>0.1614391636097032</v>
+        <v>0.2040921895186401</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.429621943480214</v>
+        <v>2.018300759660889</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5267956353129932</v>
+        <v>0.8262409232727066</v>
       </c>
       <c r="C3">
-        <v>0.2067292841341768</v>
+        <v>0.1319759684903445</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1343082166931868</v>
+        <v>0.06032539873802989</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002501422356449482</v>
+        <v>0.0008372884214562065</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.240665292669604</v>
+        <v>0.6784943535839574</v>
       </c>
       <c r="L3">
-        <v>0.1899127339680362</v>
+        <v>0.1336152272909104</v>
       </c>
       <c r="M3">
-        <v>0.1549442551754225</v>
+        <v>0.1791346806493443</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.472038509024884</v>
+        <v>2.064005496374151</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5057995710549221</v>
+        <v>0.7511838714785597</v>
       </c>
       <c r="C4">
-        <v>0.2069618841588827</v>
+        <v>0.1323465677875966</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1347221439121853</v>
+        <v>0.05992913737284411</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.00250296821329065</v>
+        <v>0.000839674553339841</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2218039225393653</v>
+        <v>0.6170536057401819</v>
       </c>
       <c r="L4">
-        <v>0.1884471570645019</v>
+        <v>0.1256271286509119</v>
       </c>
       <c r="M4">
-        <v>0.1510193880576232</v>
+        <v>0.1639169232934705</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.500279134911096</v>
+        <v>2.096244486297579</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4972856083549857</v>
+        <v>0.7206578632464584</v>
       </c>
       <c r="C5">
-        <v>0.2070640573938185</v>
+        <v>0.1325110870241701</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1349045729691625</v>
+        <v>0.05978847813571164</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002503617878382494</v>
+        <v>0.0008406661273486054</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2141164810463749</v>
+        <v>0.5920195698902972</v>
       </c>
       <c r="L5">
-        <v>0.1878727446995612</v>
+        <v>0.1224076490924801</v>
       </c>
       <c r="M5">
-        <v>0.1494359414391369</v>
+        <v>0.1577394036935935</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.512339807025398</v>
+        <v>2.110396865090379</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4958744318662696</v>
+        <v>0.7155923500787651</v>
       </c>
       <c r="C6">
-        <v>0.2070814702791992</v>
+        <v>0.1325392179492297</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1349356962791521</v>
+        <v>0.05976636121310541</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002503726947568756</v>
+        <v>0.0008408319468319438</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2128399233403968</v>
+        <v>0.5878626642249856</v>
       </c>
       <c r="L6">
-        <v>0.1877787442710144</v>
+        <v>0.1218751489829586</v>
       </c>
       <c r="M6">
-        <v>0.149173979292307</v>
+        <v>0.1567149899637421</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.514375835742257</v>
+        <v>2.112807140923962</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5056845775084753</v>
+        <v>0.7507719580677303</v>
       </c>
       <c r="C7">
-        <v>0.2069632321498496</v>
+        <v>0.1323487320186878</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1347245485116435</v>
+        <v>0.0599271569118045</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002502976894706084</v>
+        <v>0.0008396878479103561</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2217002515944699</v>
+        <v>0.6167159843924566</v>
       </c>
       <c r="L7">
-        <v>0.1884393178464165</v>
+        <v>0.1255835679452062</v>
       </c>
       <c r="M7">
-        <v>0.1509979683290403</v>
+        <v>0.1638335182682376</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.500439552741142</v>
+        <v>2.096431287157614</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5493426409530855</v>
+        <v>0.906573678924758</v>
       </c>
       <c r="C8">
-        <v>0.2065062371938637</v>
+        <v>0.1316268990986522</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1339134602371352</v>
+        <v>0.06082119857090618</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002499840015555668</v>
+        <v>0.0008348069101751823</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2607864816713459</v>
+        <v>0.7440933331928932</v>
       </c>
       <c r="L8">
-        <v>0.1915544700209679</v>
+        <v>0.1422679920247205</v>
       </c>
       <c r="M8">
-        <v>0.1591867053503933</v>
+        <v>0.1954629995061907</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.443791263134926</v>
+        <v>2.033171187043934</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6362442573989142</v>
+        <v>1.214973077264034</v>
       </c>
       <c r="C9">
-        <v>0.205840763659296</v>
+        <v>0.1306448845212884</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.132755271812762</v>
+        <v>0.06328172710201052</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002494306291712215</v>
+        <v>0.0008258149811861265</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3373635914175566</v>
+        <v>0.9946809897612638</v>
       </c>
       <c r="L9">
-        <v>0.1983790427813261</v>
+        <v>0.176300840335891</v>
       </c>
       <c r="M9">
-        <v>0.1757406744412506</v>
+        <v>0.2584720196745991</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.350133393697291</v>
+        <v>1.943933391085224</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7008542045780644</v>
+        <v>1.444199648448063</v>
       </c>
       <c r="C10">
-        <v>0.2054906760205171</v>
+        <v>0.13019492093742</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1321668425962663</v>
+        <v>0.06556520210697769</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002490613530813152</v>
+        <v>0.0008195384457120105</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3935654702996771</v>
+        <v>1.179917474334616</v>
       </c>
       <c r="L10">
-        <v>0.203827056814518</v>
+        <v>0.2022751131235907</v>
       </c>
       <c r="M10">
-        <v>0.1882008520717378</v>
+        <v>0.3055764151723466</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.29194798214553</v>
+        <v>1.902062878340587</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7304084605032415</v>
+        <v>1.549269823791036</v>
       </c>
       <c r="C11">
-        <v>0.2053611852232891</v>
+        <v>0.130050982145292</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1319559253749674</v>
+        <v>0.06671780744729006</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002489013776976147</v>
+        <v>0.0008167492009272171</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4191172243212122</v>
+        <v>1.264586246405827</v>
       </c>
       <c r="L11">
-        <v>0.2063992885752555</v>
+        <v>0.2143423263130444</v>
       </c>
       <c r="M11">
-        <v>0.193933184276105</v>
+        <v>0.32723237250827</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.26778510014023</v>
+        <v>1.888745966905816</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7416228034570906</v>
+        <v>1.589190142989565</v>
       </c>
       <c r="C12">
-        <v>0.2053163997970202</v>
+        <v>0.1300053775244123</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1318841993093862</v>
+        <v>0.06717156802162449</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002488419451076372</v>
+        <v>0.0008157019959713251</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4287905057372257</v>
+        <v>1.296719721028211</v>
       </c>
       <c r="L12">
-        <v>0.2073867748942035</v>
+        <v>0.2189515537253186</v>
       </c>
       <c r="M12">
-        <v>0.196112991905494</v>
+        <v>0.3354701497099342</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.258966877865504</v>
+        <v>1.884579983889324</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7392065906139464</v>
+        <v>1.580586386846676</v>
       </c>
       <c r="C13">
-        <v>0.2053258566037073</v>
+        <v>0.1300148005880004</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.131899284903934</v>
+        <v>0.06707305806424912</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002488546940734113</v>
+        <v>0.0008159271368352274</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4267073155215257</v>
+        <v>1.289795812741545</v>
       </c>
       <c r="L13">
-        <v>0.2071735054273773</v>
+        <v>0.2179570532094743</v>
       </c>
       <c r="M13">
-        <v>0.1956431286849565</v>
+        <v>0.3336942725443492</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.260851283442236</v>
+        <v>1.885437323511525</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7313306181643213</v>
+        <v>1.552551326428272</v>
       </c>
       <c r="C14">
-        <v>0.2053574156964828</v>
+        <v>0.1300470508178506</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1319498613229406</v>
+        <v>0.06675478650340594</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002488964651915337</v>
+        <v>0.0008166628687214423</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4199131061812977</v>
+        <v>1.267228379650987</v>
       </c>
       <c r="L14">
-        <v>0.2064802607254705</v>
+        <v>0.2147207150337636</v>
       </c>
       <c r="M14">
-        <v>0.1941123367408579</v>
+        <v>0.3279093290331971</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.267052970365256</v>
+        <v>1.888385339724863</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7265093065127246</v>
+        <v>1.535396869319186</v>
       </c>
       <c r="C15">
-        <v>0.2053772991218139</v>
+        <v>0.1300679694676461</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1319819008386531</v>
+        <v>0.06656211659225164</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002489222003736393</v>
+        <v>0.0008171146862696186</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4157511019324716</v>
+        <v>1.253414862433516</v>
       </c>
       <c r="L15">
-        <v>0.2060573764154583</v>
+        <v>0.212743633790339</v>
       </c>
       <c r="M15">
-        <v>0.1931758635843721</v>
+        <v>0.324370855094493</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.270894888854428</v>
+        <v>1.890306907609073</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6989259876410472</v>
+        <v>1.437350579423537</v>
       </c>
       <c r="C16">
-        <v>0.2054997349120953</v>
+        <v>0.1302055640112627</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1321817671408461</v>
+        <v>0.06549224504146167</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002490719685703947</v>
+        <v>0.0008197220179626541</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3918952640513567</v>
+        <v>1.174393400373106</v>
       </c>
       <c r="L16">
-        <v>0.2036608394170685</v>
+        <v>0.2014918435082791</v>
       </c>
       <c r="M16">
-        <v>0.1878275105745359</v>
+        <v>0.3041660995962303</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.293573497242534</v>
+        <v>1.903052909828233</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6820457784535847</v>
+        <v>1.377418331678911</v>
       </c>
       <c r="C17">
-        <v>0.20558244734341</v>
+        <v>0.1303056473631869</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1323189035468584</v>
+        <v>0.0648657098867087</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002491658943884884</v>
+        <v>0.000821338108261676</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3772563495589907</v>
+        <v>1.126028778725697</v>
       </c>
       <c r="L17">
-        <v>0.2022146460240606</v>
+        <v>0.1946560268585955</v>
       </c>
       <c r="M17">
-        <v>0.1845628069225143</v>
+        <v>0.2918325199933989</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.308076800883811</v>
+        <v>1.912376263715487</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6723520960746043</v>
+        <v>1.343020431912009</v>
       </c>
       <c r="C18">
-        <v>0.2056328248412456</v>
+        <v>0.1303689201522999</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1324031246191879</v>
+        <v>0.06451600001966717</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002492206722903628</v>
+        <v>0.0008222738808319412</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3688350727947238</v>
+        <v>1.098247884557168</v>
       </c>
       <c r="L18">
-        <v>0.2013916763124257</v>
+        <v>0.1907476850383318</v>
       </c>
       <c r="M18">
-        <v>0.1826910798483325</v>
+        <v>0.284759746126511</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.316635756186656</v>
+        <v>1.918274788083352</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6690726404635825</v>
+        <v>1.331385987432327</v>
       </c>
       <c r="C19">
-        <v>0.2056503642293563</v>
+        <v>0.130391318676395</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1324325588041138</v>
+        <v>0.06439939734802635</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.00249239348857174</v>
+        <v>0.0008225918028639959</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3659835545180101</v>
+        <v>1.088847747204397</v>
       </c>
       <c r="L19">
-        <v>0.2011145535967387</v>
+        <v>0.1894283109718344</v>
       </c>
       <c r="M19">
-        <v>0.1820583871084125</v>
+        <v>0.282368535436234</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.319570943630865</v>
+        <v>1.920362431032075</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6838411196497134</v>
+        <v>1.383790481460125</v>
       </c>
       <c r="C20">
-        <v>0.2055733525338468</v>
+        <v>0.1302944014600413</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1323037522101416</v>
+        <v>0.06493129620298177</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002491558177988583</v>
+        <v>0.0008211654301254846</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3788148313460056</v>
+        <v>1.131173337297611</v>
       </c>
       <c r="L20">
-        <v>0.2023676810885462</v>
+        <v>0.195381260854731</v>
       </c>
       <c r="M20">
-        <v>0.1849097155602237</v>
+        <v>0.2931432284840696</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.306510435723879</v>
+        <v>1.911327934011666</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7336433687692647</v>
+        <v>1.5607821534268</v>
       </c>
       <c r="C21">
-        <v>0.2053480309238438</v>
+        <v>0.1300373351560893</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1319347849332004</v>
+        <v>0.0668477935659304</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002488841649157161</v>
+        <v>0.0008164465254307015</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4219088049813138</v>
+        <v>1.27385493802484</v>
       </c>
       <c r="L21">
-        <v>0.2066835193152343</v>
+        <v>0.2156702013142535</v>
       </c>
       <c r="M21">
-        <v>0.1945617215217084</v>
+        <v>0.3296074629897134</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.265222380200299</v>
+        <v>1.887495198912688</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7663245492693136</v>
+        <v>1.677238415782995</v>
       </c>
       <c r="C22">
-        <v>0.2052255282035489</v>
+        <v>0.1299213018240977</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1317411026149671</v>
+        <v>0.06820160995822278</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002487133050891589</v>
+        <v>0.0008134147949042008</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.45005774948865</v>
+        <v>1.367527759303073</v>
       </c>
       <c r="L22">
-        <v>0.2095824656465197</v>
+        <v>0.2291630192841154</v>
       </c>
       <c r="M22">
-        <v>0.2009228368197498</v>
+        <v>0.3536576607429254</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.240171931558052</v>
+        <v>1.877057306426735</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7488700699673529</v>
+        <v>1.615005536864004</v>
       </c>
       <c r="C23">
-        <v>0.205288654804356</v>
+        <v>0.1299784167621709</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1318401381521888</v>
+        <v>0.06746946509904461</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002488038865998969</v>
+        <v>0.0008150282588278718</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4350357040290191</v>
+        <v>1.317489561171129</v>
       </c>
       <c r="L23">
-        <v>0.208028100819476</v>
+        <v>0.2219391289970361</v>
       </c>
       <c r="M23">
-        <v>0.1975229841115862</v>
+        <v>0.3408000812132101</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.25336484789247</v>
+        <v>1.882139610674074</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6830294116625737</v>
+        <v>1.380909453421935</v>
       </c>
       <c r="C24">
-        <v>0.2055774554959271</v>
+        <v>0.1302994678864877</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1323105853716147</v>
+        <v>0.06490161201351619</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002491603710060384</v>
+        <v>0.0008212434771493765</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3781102577974025</v>
+        <v>1.128847406818835</v>
       </c>
       <c r="L24">
-        <v>0.2022984675603396</v>
+        <v>0.195053315359047</v>
       </c>
       <c r="M24">
-        <v>0.1847528619755963</v>
+        <v>0.2925506015432831</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.307217901600467</v>
+        <v>1.911800210814818</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6125994348638528</v>
+        <v>1.13114663939345</v>
       </c>
       <c r="C25">
-        <v>0.2059962820018768</v>
+        <v>0.1308634292314252</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1330224180165711</v>
+        <v>0.06253592399755448</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002495737566298129</v>
+        <v>0.0008281878384112119</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3166567158696694</v>
+        <v>0.9267411182778176</v>
       </c>
       <c r="L25">
-        <v>0.1964564301926472</v>
+        <v>0.1669365053231857</v>
       </c>
       <c r="M25">
-        <v>0.1712097480929842</v>
+        <v>0.2413000515169124</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.373604443565625</v>
+        <v>1.964102070023714</v>
       </c>
     </row>
   </sheetData>
